--- a/資料/listテスト.xlsx
+++ b/資料/listテスト.xlsx
@@ -13,7 +13,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="477" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="926" uniqueCount="139">
   <si>
     <t>単体テスト</t>
   </si>
@@ -87,10 +87,13 @@
     <t>usersテーブルのID 、名前（姓）、名前（名）、カナ（姓）、カナ（名）、 メールアドレス 、性別 、アカウント権限、削除フラグ、登録日時 、更新日時の一覧が表示される</t>
   </si>
   <si>
+    <t>項目がID 、名前（姓）、名前（名）、カナ（姓）、カナ（名）、 メールアドレス 、性別 、アカウント権限、削除フラグ、登録日時 、更新日時の順番に並んでいる事</t>
+  </si>
+  <si>
     <t>表示されているIDの一覧</t>
   </si>
   <si>
-    <t>アカウント一覧画面が表示された時</t>
+    <t>ナビゲーションのリンクからアカウント一覧画面が表示された時</t>
   </si>
   <si>
     <t>表示されているIDがIDカラムと一致している事</t>
@@ -285,6 +288,45 @@
     <t>メールアドレスの6文字の表示された場合</t>
   </si>
   <si>
+    <t>ブラウザーの戻るボタンでアカウント一覧画面が表示された時</t>
+  </si>
+  <si>
+    <t>データベースにある全てのIDカラムの値がIDの欄に表示されている事</t>
+  </si>
+  <si>
+    <t>データベースにある全てのfamily_nameカラムの値が名前(姓)の欄に表示されている事</t>
+  </si>
+  <si>
+    <t>データベースにある全てのlast_nameカラムの値が名前(名)の欄に表示されている事</t>
+  </si>
+  <si>
+    <t>データベースにある全てのfamily_name_kanaカラムの値がカナ(姓)の欄に表示されている事</t>
+  </si>
+  <si>
+    <t>データベースにある全てのlast_name_kanaカラムの値がカナ(名)の欄に表示されている事</t>
+  </si>
+  <si>
+    <t>データベースにある全てのmailカラムの値がメールアドレスの欄に表示されている事</t>
+  </si>
+  <si>
+    <t>データベースにあるgenderカラムの値が性別の欄に0の場合は「男」、1の場合は「女」で全て表示されている事</t>
+  </si>
+  <si>
+    <t>データベースにあるauthorityカラムの値がアカウント権限の欄に0の場合は「一般」、1の場合は「管理者」で全て表示されている事</t>
+  </si>
+  <si>
+    <t>データベースにあるdelete_flagカラムの値が削除フラグの欄に0の場合は「有効」、1の場合は「無効」で全て表示されている事</t>
+  </si>
+  <si>
+    <t>データベースにある全てのregistered_timeカラムの値が登録日時の欄に表示されている事</t>
+  </si>
+  <si>
+    <t>データベースにある全てのupdate_timeカラムの値が更新日時の欄に表示されている事</t>
+  </si>
+  <si>
+    <t>ブラウザーの進むボタンでアカウント一覧画面が表示された時</t>
+  </si>
+  <si>
     <t>結合テスト</t>
   </si>
   <si>
@@ -301,6 +343,15 @@
   </si>
   <si>
     <t>アカウント削除画面ナビゲーションのアカウント一覧</t>
+  </si>
+  <si>
+    <t>DIBlog画面のナビゲーションから遷移されアカウント一覧画面が表示された時</t>
+  </si>
+  <si>
+    <t>登録フォーム画面のナビゲーションから遷移されアカウント一覧画面が表示された時</t>
+  </si>
+  <si>
+    <t>アカウント一覧画面のナビゲーションから遷移されアカウント一覧画面が表示された時</t>
   </si>
   <si>
     <t>アカウント登録`を対象とした、`単体テスト`と`結合テスト`を実施してください</t>
@@ -775,6 +826,9 @@
       </c>
     </row>
     <row r="4">
+      <c r="A4" s="2">
+        <v>1.0</v>
+      </c>
       <c r="B4" s="2" t="s">
         <v>12</v>
       </c>
@@ -800,6 +854,9 @@
       <c r="K4" s="1"/>
     </row>
     <row r="5">
+      <c r="A5" s="2">
+        <v>2.0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
@@ -825,6 +882,9 @@
       <c r="K5" s="1"/>
     </row>
     <row r="6">
+      <c r="A6" s="2">
+        <v>3.0</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -850,6 +910,9 @@
       <c r="K6" s="1"/>
     </row>
     <row r="7">
+      <c r="A7" s="2">
+        <v>4.0</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
@@ -875,6 +938,9 @@
       <c r="K7" s="1"/>
     </row>
     <row r="8">
+      <c r="A8" s="2">
+        <v>5.0</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
@@ -900,6 +966,9 @@
       <c r="K8" s="1"/>
     </row>
     <row r="9">
+      <c r="A9" s="2">
+        <v>6.0</v>
+      </c>
       <c r="B9" s="5" t="s">
         <v>21</v>
       </c>
@@ -923,197 +992,224 @@
       </c>
     </row>
     <row r="10">
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="2">
+        <v>7.0</v>
+      </c>
+      <c r="B10" s="5" t="s">
+        <v>21</v>
+      </c>
+      <c r="C10" s="5" t="s">
+        <v>22</v>
+      </c>
+      <c r="D10" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="C10" s="5" t="s">
+      <c r="E10" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I10" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2">
+        <v>8.0</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D10" s="2" t="s">
+      <c r="C11" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="E10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H10" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I10" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="B11" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C11" s="5" t="s">
+      <c r="D11" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E11" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I11" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2">
+        <v>9.0</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="D11" s="5" t="s">
-        <v>27</v>
-      </c>
-      <c r="E11" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H11" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I11" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="B12" s="2" t="s">
+      <c r="C12" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D12" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C12" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D12" s="2" t="s">
+      <c r="E12" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I12" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2">
+        <v>10.0</v>
+      </c>
+      <c r="B13" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F12" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H12" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I12" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="B13" s="2" t="s">
+      <c r="C13" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D13" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C13" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D13" s="2" t="s">
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="s">
+      <c r="C14" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D14" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C14" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D14" s="2" t="s">
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
+      <c r="C15" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C15" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="2" t="s">
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2">
+        <v>13.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
+      <c r="C16" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C16" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="2" t="s">
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
+      <c r="C17" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D17" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C17" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D17" s="2" t="s">
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2">
+        <v>15.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="2" t="s">
-        <v>38</v>
-      </c>
       <c r="C18" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D18" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D18" s="2" t="s">
         <v>40</v>
       </c>
       <c r="E18" s="1" t="s">
@@ -1130,34 +1226,40 @@
       </c>
     </row>
     <row r="19">
+      <c r="A19" s="2">
+        <v>16.0</v>
+      </c>
       <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D19" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C19" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D19" s="5" t="s">
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2">
+        <v>17.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
         <v>42</v>
       </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="s">
-        <v>41</v>
-      </c>
       <c r="C20" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D20" s="5" t="s">
         <v>43</v>
@@ -1176,34 +1278,40 @@
       </c>
     </row>
     <row r="21">
+      <c r="A21" s="2">
+        <v>18.0</v>
+      </c>
       <c r="B21" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C21" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D21" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D21" s="5" t="s">
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2">
+        <v>19.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
         <v>45</v>
       </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="2" t="s">
-        <v>44</v>
-      </c>
       <c r="C22" s="5" t="s">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="D22" s="5" t="s">
         <v>46</v>
@@ -1222,126 +1330,144 @@
       </c>
     </row>
     <row r="23">
+      <c r="A23" s="2">
+        <v>20.0</v>
+      </c>
       <c r="B23" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C23" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D23" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C23" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D23" s="2" t="s">
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2">
+        <v>21.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="2" t="s">
+      <c r="C24" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D24" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C24" s="5" t="s">
-        <v>25</v>
-      </c>
-      <c r="D24" s="2" t="s">
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="5" t="s">
+      <c r="C25" s="5" t="s">
+        <v>26</v>
+      </c>
+      <c r="D25" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="C25" s="2" t="s">
-        <v>13</v>
-      </c>
-      <c r="D25" s="2" t="s">
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2">
+        <v>23.0</v>
+      </c>
+      <c r="B26" s="5" t="s">
         <v>52</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="5" t="s">
-        <v>53</v>
       </c>
       <c r="C26" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D26" s="5" t="s">
+      <c r="D26" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B27" s="5" t="s">
         <v>54</v>
       </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="D27" s="5" t="s">
         <v>55</v>
       </c>
-      <c r="D27" s="2" t="s">
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2">
+        <v>25.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C28" s="5" t="s">
         <v>56</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C28" s="5" t="s">
-        <v>55</v>
       </c>
       <c r="D28" s="2" t="s">
         <v>57</v>
@@ -1360,11 +1486,14 @@
       </c>
     </row>
     <row r="29">
+      <c r="A29" s="2">
+        <v>26.0</v>
+      </c>
       <c r="B29" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C29" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D29" s="2" t="s">
         <v>58</v>
@@ -1383,11 +1512,14 @@
       </c>
     </row>
     <row r="30">
+      <c r="A30" s="2">
+        <v>27.0</v>
+      </c>
       <c r="B30" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C30" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D30" s="2" t="s">
         <v>59</v>
@@ -1406,11 +1538,14 @@
       </c>
     </row>
     <row r="31">
+      <c r="A31" s="2">
+        <v>28.0</v>
+      </c>
       <c r="B31" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C31" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D31" s="2" t="s">
         <v>60</v>
@@ -1429,11 +1564,14 @@
       </c>
     </row>
     <row r="32">
+      <c r="A32" s="2">
+        <v>29.0</v>
+      </c>
       <c r="B32" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C32" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D32" s="2" t="s">
         <v>61</v>
@@ -1452,11 +1590,14 @@
       </c>
     </row>
     <row r="33">
+      <c r="A33" s="2">
+        <v>30.0</v>
+      </c>
       <c r="B33" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C33" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D33" s="2" t="s">
         <v>62</v>
@@ -1475,11 +1616,14 @@
       </c>
     </row>
     <row r="34">
+      <c r="A34" s="2">
+        <v>31.0</v>
+      </c>
       <c r="B34" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C34" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D34" s="2" t="s">
         <v>63</v>
@@ -1498,11 +1642,14 @@
       </c>
     </row>
     <row r="35">
+      <c r="A35" s="2">
+        <v>32.0</v>
+      </c>
       <c r="B35" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C35" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D35" s="2" t="s">
         <v>64</v>
@@ -1521,11 +1668,14 @@
       </c>
     </row>
     <row r="36">
+      <c r="A36" s="2">
+        <v>33.0</v>
+      </c>
       <c r="B36" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C36" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D36" s="2" t="s">
         <v>65</v>
@@ -1544,11 +1694,14 @@
       </c>
     </row>
     <row r="37">
+      <c r="A37" s="2">
+        <v>34.0</v>
+      </c>
       <c r="B37" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C37" s="5" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="D37" s="2" t="s">
         <v>66</v>
@@ -1567,34 +1720,40 @@
       </c>
     </row>
     <row r="38">
+      <c r="A38" s="2">
+        <v>35.0</v>
+      </c>
       <c r="B38" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C38" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D38" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D38" s="2" t="s">
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C39" s="2" t="s">
         <v>68</v>
-      </c>
-      <c r="E38" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F38" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H38" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I38" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="39">
-      <c r="B39" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C39" s="2" t="s">
-        <v>67</v>
       </c>
       <c r="D39" s="2" t="s">
         <v>69</v>
@@ -1613,11 +1772,14 @@
       </c>
     </row>
     <row r="40">
+      <c r="A40" s="2">
+        <v>37.0</v>
+      </c>
       <c r="B40" s="2" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D40" s="2" t="s">
         <v>70</v>
@@ -1636,11 +1798,14 @@
       </c>
     </row>
     <row r="41">
+      <c r="A41" s="2">
+        <v>38.0</v>
+      </c>
       <c r="B41" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D41" s="2" t="s">
         <v>71</v>
@@ -1659,11 +1824,14 @@
       </c>
     </row>
     <row r="42">
+      <c r="A42" s="2">
+        <v>39.0</v>
+      </c>
       <c r="B42" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C42" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D42" s="2" t="s">
         <v>72</v>
@@ -1682,11 +1850,14 @@
       </c>
     </row>
     <row r="43">
+      <c r="A43" s="2">
+        <v>40.0</v>
+      </c>
       <c r="B43" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D43" s="2" t="s">
         <v>73</v>
@@ -1705,11 +1876,14 @@
       </c>
     </row>
     <row r="44">
+      <c r="A44" s="2">
+        <v>41.0</v>
+      </c>
       <c r="B44" s="2" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D44" s="2" t="s">
         <v>74</v>
@@ -1728,11 +1902,14 @@
       </c>
     </row>
     <row r="45">
+      <c r="A45" s="2">
+        <v>42.0</v>
+      </c>
       <c r="B45" s="2" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D45" s="2" t="s">
         <v>75</v>
@@ -1751,11 +1928,14 @@
       </c>
     </row>
     <row r="46">
+      <c r="A46" s="2">
+        <v>43.0</v>
+      </c>
       <c r="B46" s="2" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="C46" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D46" s="2" t="s">
         <v>76</v>
@@ -1774,11 +1954,14 @@
       </c>
     </row>
     <row r="47">
+      <c r="A47" s="2">
+        <v>44.0</v>
+      </c>
       <c r="B47" s="2" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C47" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D47" s="2" t="s">
         <v>77</v>
@@ -1797,11 +1980,14 @@
       </c>
     </row>
     <row r="48">
+      <c r="A48" s="2">
+        <v>45.0</v>
+      </c>
       <c r="B48" s="2" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="C48" s="2" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="D48" s="2" t="s">
         <v>78</v>
@@ -1820,38 +2006,44 @@
       </c>
     </row>
     <row r="49">
+      <c r="A49" s="2">
+        <v>46.0</v>
+      </c>
       <c r="B49" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="C49" s="6" t="s">
+        <v>50</v>
+      </c>
+      <c r="C49" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D49" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="D49" s="2" t="s">
+      <c r="E49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2">
+        <v>47.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C50" s="6" t="s">
         <v>80</v>
       </c>
-      <c r="E49" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F49" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H49" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I49" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="50">
-      <c r="B50" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C50" s="6" t="s">
+      <c r="D50" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="D50" s="2" t="s">
-        <v>80</v>
-      </c>
       <c r="E50" s="1" t="s">
         <v>15</v>
       </c>
@@ -1866,14 +2058,17 @@
       </c>
     </row>
     <row r="51">
+      <c r="A51" s="2">
+        <v>48.0</v>
+      </c>
       <c r="B51" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C51" s="6" t="s">
         <v>82</v>
       </c>
       <c r="D51" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E51" s="1" t="s">
         <v>15</v>
@@ -1889,14 +2084,17 @@
       </c>
     </row>
     <row r="52">
+      <c r="A52" s="2">
+        <v>49.0</v>
+      </c>
       <c r="B52" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C52" s="6" t="s">
         <v>83</v>
       </c>
       <c r="D52" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E52" s="1" t="s">
         <v>15</v>
@@ -1912,14 +2110,17 @@
       </c>
     </row>
     <row r="53">
+      <c r="A53" s="2">
+        <v>50.0</v>
+      </c>
       <c r="B53" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C53" s="6" t="s">
         <v>84</v>
       </c>
       <c r="D53" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E53" s="1" t="s">
         <v>15</v>
@@ -1927,29 +2128,35 @@
       <c r="F53" s="3">
         <v>45326.0</v>
       </c>
-      <c r="G53" s="2" t="s">
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2">
+        <v>51.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C54" s="6" t="s">
         <v>85</v>
       </c>
-      <c r="H53" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I53" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="54">
-      <c r="B54" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="C54" s="6" t="s">
+      <c r="D54" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="G54" s="2" t="s">
         <v>86</v>
       </c>
-      <c r="D54" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="E54" s="1" t="s">
-        <v>15</v>
-      </c>
       <c r="H54" s="1" t="s">
         <v>16</v>
       </c>
@@ -1958,71 +2165,695 @@
       </c>
     </row>
     <row r="55">
+      <c r="A55" s="2">
+        <v>52.0</v>
+      </c>
       <c r="B55" s="2" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C55" s="6" t="s">
         <v>87</v>
       </c>
       <c r="D55" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E55" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F55" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="56">
+      <c r="A56" s="2">
+        <v>53.0</v>
+      </c>
       <c r="B56" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="C56" s="6" t="s">
         <v>88</v>
       </c>
       <c r="D56" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E56" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F56" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="57">
+      <c r="A57" s="2">
+        <v>54.0</v>
+      </c>
       <c r="B57" s="2" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="C57" s="6" t="s">
         <v>89</v>
       </c>
       <c r="D57" s="2" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="E57" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F57" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="58">
+      <c r="A58" s="2">
+        <v>55.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C58" s="6" t="s">
+        <v>90</v>
+      </c>
+      <c r="D58" s="2" t="s">
+        <v>81</v>
+      </c>
       <c r="E58" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F58" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="59">
+      <c r="A59" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D59" s="2" t="s">
+        <v>92</v>
+      </c>
       <c r="E59" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F59" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="60">
+      <c r="A60" s="2">
+        <v>57.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D60" s="2" t="s">
+        <v>93</v>
+      </c>
       <c r="E60" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F60" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="61">
+      <c r="A61" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D61" s="2" t="s">
+        <v>94</v>
+      </c>
       <c r="E61" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F61" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="4" t="b">
+        <v>1</v>
+      </c>
     </row>
     <row r="62">
+      <c r="A62" s="2">
+        <v>59.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D62" s="2" t="s">
+        <v>95</v>
+      </c>
       <c r="E62" s="1" t="s">
         <v>15</v>
       </c>
+      <c r="F62" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D63" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2">
+        <v>61.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D65" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2">
+        <v>63.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D67" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2">
+        <v>65.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D68" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>66.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D69" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2">
+        <v>67.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D70" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2">
+        <v>69.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D73" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2">
+        <v>71.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D74" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>72.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D75" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2">
+        <v>73.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D76" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>74.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D77" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2">
+        <v>75.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D78" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>76.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2">
+        <v>77.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D80" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="C81" s="5"/>
+    </row>
+    <row r="82">
+      <c r="C82" s="5"/>
+    </row>
+    <row r="83">
+      <c r="C83" s="5"/>
+    </row>
+    <row r="84">
+      <c r="C84" s="5"/>
+    </row>
+    <row r="85">
+      <c r="C85" s="5"/>
     </row>
   </sheetData>
   <drawing r:id="rId1"/>
@@ -2048,7 +2879,7 @@
     <row r="1">
       <c r="A1" s="1"/>
       <c r="B1" s="1" t="s">
-        <v>90</v>
+        <v>104</v>
       </c>
       <c r="C1" s="1"/>
       <c r="D1" s="1"/>
@@ -2077,7 +2908,7 @@
     </row>
     <row r="3">
       <c r="A3" s="1" t="s">
-        <v>91</v>
+        <v>105</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>2</v>
@@ -2101,10 +2932,10 @@
         <v>8</v>
       </c>
       <c r="I3" s="1" t="s">
-        <v>92</v>
+        <v>106</v>
       </c>
       <c r="J3" s="1" t="s">
-        <v>93</v>
+        <v>107</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>11</v>
@@ -2142,6 +2973,9 @@
       <c r="L4" s="1"/>
     </row>
     <row r="5">
+      <c r="A5" s="2">
+        <v>2.0</v>
+      </c>
       <c r="B5" s="2" t="s">
         <v>17</v>
       </c>
@@ -2165,6 +2999,9 @@
       </c>
     </row>
     <row r="6">
+      <c r="A6" s="8">
+        <v>3.0</v>
+      </c>
       <c r="B6" s="2" t="s">
         <v>18</v>
       </c>
@@ -2188,6 +3025,9 @@
       </c>
     </row>
     <row r="7">
+      <c r="A7" s="2">
+        <v>4.0</v>
+      </c>
       <c r="B7" s="2" t="s">
         <v>19</v>
       </c>
@@ -2211,6 +3051,9 @@
       </c>
     </row>
     <row r="8">
+      <c r="A8" s="8">
+        <v>5.0</v>
+      </c>
       <c r="B8" s="2" t="s">
         <v>20</v>
       </c>
@@ -2234,8 +3077,11 @@
       </c>
     </row>
     <row r="9">
+      <c r="A9" s="2">
+        <v>6.0</v>
+      </c>
       <c r="B9" s="2" t="s">
-        <v>94</v>
+        <v>108</v>
       </c>
       <c r="C9" s="2" t="s">
         <v>13</v>
@@ -2257,8 +3103,11 @@
       </c>
     </row>
     <row r="10">
+      <c r="A10" s="8">
+        <v>7.0</v>
+      </c>
       <c r="B10" s="5" t="s">
-        <v>95</v>
+        <v>109</v>
       </c>
       <c r="C10" s="2" t="s">
         <v>13</v>
@@ -2280,14 +3129,17 @@
       </c>
     </row>
     <row r="11">
+      <c r="A11" s="2">
+        <v>8.0</v>
+      </c>
       <c r="B11" s="5" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="E11" s="1" t="s">
         <v>15</v>
@@ -2303,14 +3155,17 @@
       </c>
     </row>
     <row r="12">
+      <c r="A12" s="8">
+        <v>9.0</v>
+      </c>
       <c r="B12" s="5" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C12" s="2" t="s">
         <v>13</v>
       </c>
       <c r="D12" s="5" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="E12" s="1" t="s">
         <v>15</v>
@@ -2326,500 +3181,2317 @@
       </c>
     </row>
     <row r="13">
+      <c r="A13" s="2">
+        <v>10.0</v>
+      </c>
       <c r="B13" s="2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="C13" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D13" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="E13" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I13" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="8">
+        <v>11.0</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D14" s="2" t="s">
+        <v>70</v>
+      </c>
+      <c r="E14" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I14" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2">
+        <v>12.0</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C15" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D15" s="2" t="s">
+        <v>71</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I15" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="8">
+        <v>13.0</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D16" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I16" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2">
+        <v>14.0</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C17" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D17" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="E17" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I17" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="8">
+        <v>15.0</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C18" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D18" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I18" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2">
+        <v>16.0</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D19" s="2" t="s">
+        <v>75</v>
+      </c>
+      <c r="E19" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I19" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="8">
+        <v>17.0</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D20" s="2" t="s">
+        <v>76</v>
+      </c>
+      <c r="E20" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H20" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I20" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2">
+        <v>18.0</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C21" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D21" s="2" t="s">
+        <v>77</v>
+      </c>
+      <c r="E21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I21" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="8">
+        <v>19.0</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C22" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D22" s="2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E22" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I22" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2">
+        <v>20.0</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C23" s="2" t="s">
+        <v>68</v>
+      </c>
+      <c r="D23" s="2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E23" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H23" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I23" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="8">
+        <v>21.0</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C24" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="E24" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I24" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2">
+        <v>22.0</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C25" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D25" s="2" t="s">
+        <v>58</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I25" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="8">
+        <v>23.0</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C26" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D26" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="E26" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I26" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2">
+        <v>24.0</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C27" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D27" s="2" t="s">
+        <v>60</v>
+      </c>
+      <c r="E27" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I27" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="8">
+        <v>25.0</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C28" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D28" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="E28" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I28" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2">
+        <v>26.0</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C29" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D29" s="2" t="s">
+        <v>62</v>
+      </c>
+      <c r="E29" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H29" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I29" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="8">
+        <v>27.0</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C30" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D30" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I30" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2">
+        <v>28.0</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C31" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D31" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I31" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="8">
+        <v>29.0</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C32" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D32" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="E32" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F32" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I32" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2">
+        <v>30.0</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C33" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D33" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="E33" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F33" s="3">
+        <v>45326.0</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I33" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="8">
+        <v>31.0</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C34" s="5" t="s">
+        <v>56</v>
+      </c>
+      <c r="D34" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="2" t="s">
-        <v>68</v>
-      </c>
-      <c r="E13" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F13" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H13" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I13" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="B14" s="2" t="s">
+      <c r="E34" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F34" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I34" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2">
+        <v>32.0</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C35" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D35" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E35" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F35" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I35" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="8">
+        <v>33.0</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C36" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D36" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F36" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I36" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2">
+        <v>34.0</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D37" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E37" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F37" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I37" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="8">
+        <v>35.0</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C38" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D38" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E38" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F38" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H38" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I38" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2">
+        <v>36.0</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C39" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D39" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F39" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I39" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="8">
+        <v>37.0</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C40" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D40" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E40" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F40" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I40" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2">
+        <v>38.0</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C41" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D41" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E41" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F41" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I41" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="8">
+        <v>39.0</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C42" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D42" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E42" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F42" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I42" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2">
+        <v>40.0</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C43" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D43" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E43" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F43" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I43" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="8">
+        <v>41.0</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C44" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D44" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E44" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F44" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I44" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2">
+        <v>42.0</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C45" s="5" t="s">
+        <v>91</v>
+      </c>
+      <c r="D45" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E45" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F45" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H45" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I45" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="8">
+        <v>43.0</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C46" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D46" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="E46" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F46" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I46" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2">
+        <v>44.0</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C47" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D47" s="2" t="s">
+        <v>93</v>
+      </c>
+      <c r="E47" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F47" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I47" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="8">
+        <v>45.0</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C48" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D48" s="2" t="s">
+        <v>94</v>
+      </c>
+      <c r="E48" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F48" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I48" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2">
+        <v>46.0</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C49" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D49" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="E49" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F49" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I49" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="8">
+        <v>47.0</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C50" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D50" s="2" t="s">
+        <v>96</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F50" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H50" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I50" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2">
+        <v>48.0</v>
+      </c>
+      <c r="B51" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C51" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D51" s="2" t="s">
+        <v>97</v>
+      </c>
+      <c r="E51" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F51" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I51" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="8">
+        <v>49.0</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C52" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D52" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="E52" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F52" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I52" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2">
+        <v>50.0</v>
+      </c>
+      <c r="B53" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C53" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D53" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="E53" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F53" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I53" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="8">
+        <v>51.0</v>
+      </c>
+      <c r="B54" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C54" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D54" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="E54" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F54" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I54" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2">
+        <v>52.0</v>
+      </c>
+      <c r="B55" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C55" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D55" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="E55" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F55" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I55" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="8">
+        <v>53.0</v>
+      </c>
+      <c r="B56" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C56" s="5" t="s">
+        <v>103</v>
+      </c>
+      <c r="D56" s="2" t="s">
+        <v>102</v>
+      </c>
+      <c r="E56" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F56" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I56" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2">
+        <v>54.0</v>
+      </c>
+      <c r="B57" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C57" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D57" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E57" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F57" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I57" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="8">
+        <v>55.0</v>
+      </c>
+      <c r="B58" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C58" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D58" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C14" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D14" s="2" t="s">
-        <v>69</v>
-      </c>
-      <c r="E14" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H14" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I14" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="B15" s="2" t="s">
+      <c r="E58" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F58" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I58" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2">
+        <v>56.0</v>
+      </c>
+      <c r="B59" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C59" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D59" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C15" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D15" s="2" t="s">
-        <v>70</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F15" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H15" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I15" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="B16" s="2" t="s">
+      <c r="E59" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F59" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I59" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="8">
+        <v>57.0</v>
+      </c>
+      <c r="B60" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C60" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D60" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C16" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="E16" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F16" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H16" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I16" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17">
-      <c r="B17" s="2" t="s">
+      <c r="E60" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F60" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I60" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2">
+        <v>58.0</v>
+      </c>
+      <c r="B61" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C61" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D61" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C17" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D17" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="E17" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F17" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H17" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I17" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="18">
-      <c r="B18" s="2" t="s">
+      <c r="E61" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F61" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I61" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="8">
+        <v>59.0</v>
+      </c>
+      <c r="B62" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C62" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D62" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C18" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D18" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="E18" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F18" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H18" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I18" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="19">
-      <c r="B19" s="2" t="s">
+      <c r="E62" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F62" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I62" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2">
+        <v>60.0</v>
+      </c>
+      <c r="B63" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C63" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D63" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C19" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D19" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="E19" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F19" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H19" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I19" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="20">
-      <c r="B20" s="2" t="s">
+      <c r="E63" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F63" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I63" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="8">
+        <v>61.0</v>
+      </c>
+      <c r="B64" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C64" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D64" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E64" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F64" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H64" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I64" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2">
+        <v>62.0</v>
+      </c>
+      <c r="B65" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C65" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D65" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C20" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="E20" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H20" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I20" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="21">
-      <c r="B21" s="2" t="s">
+      <c r="E65" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F65" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I65" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="8">
+        <v>63.0</v>
+      </c>
+      <c r="B66" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C66" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D66" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E66" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F66" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I66" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2">
+        <v>64.0</v>
+      </c>
+      <c r="B67" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C67" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D67" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C21" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="E21" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F21" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H21" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I21" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="22">
-      <c r="B22" s="2" t="s">
+      <c r="E67" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F67" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I67" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="8">
+        <v>65.0</v>
+      </c>
+      <c r="B68" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C68" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D68" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E68" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F68" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I68" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2">
+        <v>66.0</v>
+      </c>
+      <c r="B69" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C69" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D69" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C22" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="E22" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F22" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H22" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I22" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="23">
-      <c r="B23" s="2" t="s">
+      <c r="E69" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F69" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I69" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="8">
+        <v>67.0</v>
+      </c>
+      <c r="B70" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C70" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D70" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C23" s="2" t="s">
-        <v>67</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="E23" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F23" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H23" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I23" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="24">
-      <c r="B24" s="2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C24" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F24" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I24" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="25">
-      <c r="B25" s="2" t="s">
+      <c r="E70" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F70" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I70" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2">
+        <v>68.0</v>
+      </c>
+      <c r="B71" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C71" s="5" t="s">
+        <v>110</v>
+      </c>
+      <c r="D71" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F71" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I71" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="8">
+        <v>69.0</v>
+      </c>
+      <c r="B72" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C72" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D72" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E72" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F72" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I72" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2">
+        <v>70.0</v>
+      </c>
+      <c r="B73" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C73" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D73" s="5" t="s">
         <v>28</v>
       </c>
-      <c r="C25" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>57</v>
-      </c>
-      <c r="E25" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F25" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H25" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I25" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="26">
-      <c r="B26" s="2" t="s">
+      <c r="E73" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F73" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I73" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="8">
+        <v>71.0</v>
+      </c>
+      <c r="B74" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C74" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D74" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="C26" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="E26" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F26" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I26" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="27">
-      <c r="B27" s="2" t="s">
+      <c r="E74" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F74" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I74" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2">
+        <v>72.0</v>
+      </c>
+      <c r="B75" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C75" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D75" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="C27" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="E27" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F27" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I27" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="28">
-      <c r="B28" s="2" t="s">
+      <c r="E75" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F75" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I75" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="8">
+        <v>73.0</v>
+      </c>
+      <c r="B76" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C76" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D76" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="C28" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D28" s="2" t="s">
-        <v>60</v>
-      </c>
-      <c r="E28" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F28" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H28" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I28" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="29">
-      <c r="B29" s="2" t="s">
+      <c r="E76" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F76" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I76" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2">
+        <v>74.0</v>
+      </c>
+      <c r="B77" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C77" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D77" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="C29" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D29" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="E29" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F29" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H29" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I29" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="30">
-      <c r="B30" s="2" t="s">
+      <c r="E77" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F77" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I77" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="8">
+        <v>75.0</v>
+      </c>
+      <c r="B78" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C78" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D78" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="C30" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D30" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="E30" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F30" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H30" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I30" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="31">
-      <c r="B31" s="2" t="s">
+      <c r="E78" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F78" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I78" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2">
+        <v>76.0</v>
+      </c>
+      <c r="B79" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C79" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D79" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E79" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F79" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I79" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="8">
+        <v>77.0</v>
+      </c>
+      <c r="B80" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C80" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D80" s="5" t="s">
         <v>41</v>
       </c>
-      <c r="C31" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D31" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="E31" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F31" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H31" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I31" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="32">
-      <c r="B32" s="2" t="s">
+      <c r="E80" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F80" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I80" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2">
+        <v>78.0</v>
+      </c>
+      <c r="B81" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C81" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D81" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E81" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F81" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I81" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="8">
+        <v>79.0</v>
+      </c>
+      <c r="B82" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C82" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D82" s="5" t="s">
         <v>44</v>
       </c>
-      <c r="C32" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D32" s="2" t="s">
-        <v>64</v>
-      </c>
-      <c r="E32" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F32" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H32" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I32" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="33">
-      <c r="B33" s="2" t="s">
+      <c r="E82" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F82" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I82" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2">
+        <v>80.0</v>
+      </c>
+      <c r="B83" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C83" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D83" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E83" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F83" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I83" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="8">
+        <v>81.0</v>
+      </c>
+      <c r="B84" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C84" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D84" s="5" t="s">
         <v>47</v>
       </c>
-      <c r="C33" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D33" s="2" t="s">
-        <v>65</v>
-      </c>
-      <c r="E33" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="F33" s="3">
-        <v>45326.0</v>
-      </c>
-      <c r="H33" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="I33" s="4" t="b">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="34">
-      <c r="B34" s="2" t="s">
+      <c r="E84" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F84" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I84" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2">
+        <v>82.0</v>
+      </c>
+      <c r="B85" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C85" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D85" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="C34" s="5" t="s">
-        <v>55</v>
-      </c>
-      <c r="D34" s="2" t="s">
-        <v>66</v>
-      </c>
-      <c r="E34" s="1" t="s">
-        <v>15</v>
+      <c r="E85" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F85" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I85" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="8">
+        <v>83.0</v>
+      </c>
+      <c r="B86" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C86" s="5" t="s">
+        <v>111</v>
+      </c>
+      <c r="D86" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E86" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F86" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I86" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2">
+        <v>84.0</v>
+      </c>
+      <c r="B87" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C87" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D87" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="E87" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F87" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I87" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="8">
+        <v>85.0</v>
+      </c>
+      <c r="B88" s="2" t="s">
+        <v>25</v>
+      </c>
+      <c r="C88" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D88" s="5" t="s">
+        <v>28</v>
+      </c>
+      <c r="E88" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F88" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I88" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2">
+        <v>86.0</v>
+      </c>
+      <c r="B89" s="2" t="s">
+        <v>29</v>
+      </c>
+      <c r="C89" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D89" s="2" t="s">
+        <v>30</v>
+      </c>
+      <c r="E89" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F89" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I89" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="8">
+        <v>87.0</v>
+      </c>
+      <c r="B90" s="2" t="s">
+        <v>31</v>
+      </c>
+      <c r="C90" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D90" s="2" t="s">
+        <v>32</v>
+      </c>
+      <c r="E90" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F90" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I90" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2">
+        <v>88.0</v>
+      </c>
+      <c r="B91" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="C91" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D91" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="E91" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F91" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I91" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="8">
+        <v>89.0</v>
+      </c>
+      <c r="B92" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="C92" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D92" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="E92" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F92" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I92" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2">
+        <v>90.0</v>
+      </c>
+      <c r="B93" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="C93" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D93" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="E93" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F93" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H93" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I93" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="8">
+        <v>91.0</v>
+      </c>
+      <c r="B94" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C94" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D94" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="E94" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F94" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H94" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I94" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2">
+        <v>92.0</v>
+      </c>
+      <c r="B95" s="2" t="s">
+        <v>39</v>
+      </c>
+      <c r="C95" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D95" s="5" t="s">
+        <v>41</v>
+      </c>
+      <c r="E95" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F95" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H95" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I95" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="8">
+        <v>93.0</v>
+      </c>
+      <c r="B96" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C96" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D96" s="5" t="s">
+        <v>43</v>
+      </c>
+      <c r="E96" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F96" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H96" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I96" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2">
+        <v>94.0</v>
+      </c>
+      <c r="B97" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="C97" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D97" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="E97" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F97" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H97" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I97" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="8">
+        <v>95.0</v>
+      </c>
+      <c r="B98" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C98" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D98" s="5" t="s">
+        <v>46</v>
+      </c>
+      <c r="E98" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F98" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H98" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I98" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2">
+        <v>96.0</v>
+      </c>
+      <c r="B99" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="C99" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D99" s="5" t="s">
+        <v>47</v>
+      </c>
+      <c r="E99" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F99" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H99" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I99" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="8">
+        <v>97.0</v>
+      </c>
+      <c r="B100" s="2" t="s">
+        <v>48</v>
+      </c>
+      <c r="C100" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D100" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="E100" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F100" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H100" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I100" s="4" t="b">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2">
+        <v>98.0</v>
+      </c>
+      <c r="B101" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="C101" s="5" t="s">
+        <v>112</v>
+      </c>
+      <c r="D101" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="E101" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="F101" s="3">
+        <v>45327.0</v>
+      </c>
+      <c r="H101" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="I101" s="4" t="b">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2860,7 +5532,7 @@
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="10" t="s">
-        <v>96</v>
+        <v>113</v>
       </c>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
@@ -2873,12 +5545,12 @@
     </row>
     <row r="3">
       <c r="A3" s="10" t="s">
-        <v>97</v>
+        <v>114</v>
       </c>
       <c r="B3" s="1"/>
       <c r="C3" s="1"/>
       <c r="D3" s="10" t="s">
-        <v>98</v>
+        <v>115</v>
       </c>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -2893,12 +5565,12 @@
     </row>
     <row r="4">
       <c r="A4" s="10" t="s">
-        <v>99</v>
+        <v>116</v>
       </c>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
       <c r="D4" s="10" t="s">
-        <v>100</v>
+        <v>117</v>
       </c>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -2913,12 +5585,12 @@
     </row>
     <row r="5">
       <c r="A5" s="10" t="s">
-        <v>101</v>
+        <v>118</v>
       </c>
       <c r="B5" s="1"/>
       <c r="C5" s="1"/>
       <c r="D5" s="10" t="s">
-        <v>102</v>
+        <v>119</v>
       </c>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -2951,7 +5623,7 @@
     </row>
     <row r="7">
       <c r="A7" s="10" t="s">
-        <v>103</v>
+        <v>120</v>
       </c>
       <c r="B7" s="1"/>
       <c r="C7" s="1"/>
@@ -2969,7 +5641,7 @@
     </row>
     <row r="8">
       <c r="A8" s="10" t="s">
-        <v>104</v>
+        <v>121</v>
       </c>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -2987,7 +5659,7 @@
     </row>
     <row r="9">
       <c r="A9" s="10" t="s">
-        <v>105</v>
+        <v>122</v>
       </c>
       <c r="B9" s="1"/>
       <c r="C9" s="1"/>
@@ -3005,7 +5677,7 @@
     </row>
     <row r="10">
       <c r="A10" s="10" t="s">
-        <v>106</v>
+        <v>123</v>
       </c>
       <c r="B10" s="1"/>
       <c r="C10" s="1"/>
@@ -3023,7 +5695,7 @@
     </row>
     <row r="11">
       <c r="A11" s="10" t="s">
-        <v>107</v>
+        <v>124</v>
       </c>
       <c r="B11" s="1"/>
       <c r="C11" s="1"/>
@@ -3041,7 +5713,7 @@
     </row>
     <row r="12">
       <c r="A12" s="10" t="s">
-        <v>108</v>
+        <v>125</v>
       </c>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -3059,7 +5731,7 @@
     </row>
     <row r="13">
       <c r="A13" s="10" t="s">
-        <v>109</v>
+        <v>126</v>
       </c>
       <c r="B13" s="1"/>
       <c r="C13" s="1"/>
@@ -3077,7 +5749,7 @@
     </row>
     <row r="14">
       <c r="A14" s="10" t="s">
-        <v>110</v>
+        <v>127</v>
       </c>
       <c r="B14" s="1"/>
       <c r="C14" s="1"/>
@@ -3111,7 +5783,7 @@
     </row>
     <row r="16">
       <c r="A16" s="10" t="s">
-        <v>111</v>
+        <v>128</v>
       </c>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -3129,7 +5801,7 @@
     </row>
     <row r="17">
       <c r="A17" s="10" t="s">
-        <v>112</v>
+        <v>129</v>
       </c>
       <c r="B17" s="1"/>
       <c r="C17" s="1"/>
@@ -3147,7 +5819,7 @@
     </row>
     <row r="18">
       <c r="A18" s="10" t="s">
-        <v>113</v>
+        <v>130</v>
       </c>
       <c r="B18" s="1"/>
       <c r="C18" s="1"/>
@@ -3165,7 +5837,7 @@
     </row>
     <row r="19">
       <c r="A19" s="10" t="s">
-        <v>114</v>
+        <v>131</v>
       </c>
       <c r="B19" s="1"/>
       <c r="C19" s="1"/>
@@ -3183,7 +5855,7 @@
     </row>
     <row r="20">
       <c r="A20" s="10" t="s">
-        <v>115</v>
+        <v>132</v>
       </c>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -3233,10 +5905,10 @@
     </row>
     <row r="23">
       <c r="A23" s="1" t="s">
-        <v>116</v>
+        <v>133</v>
       </c>
       <c r="B23" s="12" t="s">
-        <v>117</v>
+        <v>134</v>
       </c>
       <c r="C23" s="1"/>
       <c r="D23" s="1"/>
@@ -3253,10 +5925,10 @@
     </row>
     <row r="24">
       <c r="A24" s="1" t="s">
-        <v>118</v>
+        <v>135</v>
       </c>
       <c r="B24" s="12" t="s">
-        <v>119</v>
+        <v>136</v>
       </c>
       <c r="C24" s="1"/>
       <c r="D24" s="1"/>
@@ -3273,10 +5945,10 @@
     </row>
     <row r="25">
       <c r="A25" s="1" t="s">
-        <v>120</v>
+        <v>137</v>
       </c>
       <c r="B25" s="12" t="s">
-        <v>121</v>
+        <v>138</v>
       </c>
       <c r="C25" s="1"/>
       <c r="D25" s="1"/>
